--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H2">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I2">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J2">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N2">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q2">
-        <v>0.860610493157111</v>
+        <v>0.7072755514783333</v>
       </c>
       <c r="R2">
-        <v>7.745494438414</v>
+        <v>6.365479963305001</v>
       </c>
       <c r="S2">
-        <v>0.005709869159265134</v>
+        <v>0.01378745831969807</v>
       </c>
       <c r="T2">
-        <v>0.005709869159265134</v>
+        <v>0.01378745831969808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H3">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I3">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J3">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P3">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q3">
-        <v>3.848026243724667</v>
+        <v>3.271170310595</v>
       </c>
       <c r="R3">
-        <v>34.632236193522</v>
+        <v>29.440532795355</v>
       </c>
       <c r="S3">
-        <v>0.02553039562936775</v>
+        <v>0.06376740185588614</v>
       </c>
       <c r="T3">
-        <v>0.02553039562936775</v>
+        <v>0.06376740185588614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1035713333333333</v>
+        <v>0.088045</v>
       </c>
       <c r="H4">
-        <v>0.310714</v>
+        <v>0.264135</v>
       </c>
       <c r="I4">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="J4">
-        <v>0.03719703351760219</v>
+        <v>0.1003389266487061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N4">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O4">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P4">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q4">
-        <v>0.8978240184615557</v>
+        <v>1.168787807443333</v>
       </c>
       <c r="R4">
-        <v>8.080416166154</v>
+        <v>10.51909026699</v>
       </c>
       <c r="S4">
-        <v>0.0059567687289693</v>
+        <v>0.02278406647312185</v>
       </c>
       <c r="T4">
-        <v>0.005956768728969299</v>
+        <v>0.02278406647312185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H5">
         <v>1.166438</v>
       </c>
       <c r="I5">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J5">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N5">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q5">
-        <v>3.230780661370888</v>
+        <v>3.123376605581556</v>
       </c>
       <c r="R5">
-        <v>29.077025952338</v>
+        <v>28.110389450234</v>
       </c>
       <c r="S5">
-        <v>0.02143517306074044</v>
+        <v>0.06088634716153476</v>
       </c>
       <c r="T5">
-        <v>0.02143517306074044</v>
+        <v>0.06088634716153477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H6">
         <v>1.166438</v>
       </c>
       <c r="I6">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J6">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P6">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q6">
         <v>14.44570903041933</v>
@@ -818,10 +818,10 @@
         <v>130.011381273774</v>
       </c>
       <c r="S6">
-        <v>0.09584255494483178</v>
+        <v>0.2816011535236759</v>
       </c>
       <c r="T6">
-        <v>0.09584255494483176</v>
+        <v>0.2816011535236759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3888126666666666</v>
+        <v>0.3888126666666667</v>
       </c>
       <c r="H7">
         <v>1.166438</v>
       </c>
       <c r="I7">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="J7">
-        <v>0.139639776071258</v>
+        <v>0.4431034770941504</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N7">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O7">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P7">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q7">
-        <v>3.370482348546445</v>
+        <v>5.161445899023557</v>
       </c>
       <c r="R7">
-        <v>30.334341136918</v>
+        <v>46.45301309121201</v>
       </c>
       <c r="S7">
-        <v>0.02236204806568578</v>
+        <v>0.1006159764089398</v>
       </c>
       <c r="T7">
-        <v>0.02236204806568578</v>
+        <v>0.1006159764089398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H8">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I8">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J8">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N8">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q8">
-        <v>19.04514452512122</v>
+        <v>3.218212875696111</v>
       </c>
       <c r="R8">
-        <v>171.406300726091</v>
+        <v>28.963915881265</v>
       </c>
       <c r="S8">
-        <v>0.126358305205889</v>
+        <v>0.06273506244466175</v>
       </c>
       <c r="T8">
-        <v>0.126358305205889</v>
+        <v>0.06273506244466176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H9">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I9">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J9">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P9">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q9">
-        <v>85.15607993501034</v>
+        <v>14.88432958010167</v>
       </c>
       <c r="R9">
-        <v>766.404719415093</v>
+        <v>133.958966220915</v>
       </c>
       <c r="S9">
-        <v>0.5649827400559791</v>
+        <v>0.2901515162985066</v>
       </c>
       <c r="T9">
-        <v>0.564982740055979</v>
+        <v>0.2901515162985066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.292013666666667</v>
+        <v>0.4006183333333334</v>
       </c>
       <c r="H10">
-        <v>6.876041000000001</v>
+        <v>1.201855</v>
       </c>
       <c r="I10">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="J10">
-        <v>0.8231631904111398</v>
+        <v>0.4565575962571436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N10">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O10">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P10">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q10">
-        <v>19.86867267560012</v>
+        <v>5.318164841141112</v>
       </c>
       <c r="R10">
-        <v>178.818054080401</v>
+        <v>47.86348357027001</v>
       </c>
       <c r="S10">
-        <v>0.1318221451492717</v>
+        <v>0.1036710175139753</v>
       </c>
       <c r="T10">
-        <v>0.1318221451492717</v>
+        <v>0.1036710175139753</v>
       </c>
     </row>
   </sheetData>
